--- a/data_tables/Microscopy_repletion.xlsx
+++ b/data_tables/Microscopy_repletion.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rickman\Downloads\data_tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rickman\Documents\GitHub\R-graphs\data_tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06398CE6-6AC7-4ECB-8746-18937CB2161F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07CFE6B1-F329-4753-8048-5731E0015740}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{D24EA500-18B2-4E0C-97D7-FC3D55B19C4F}"/>
+    <workbookView xWindow="210" yWindow="1785" windowWidth="21600" windowHeight="11385" xr2:uid="{D24EA500-18B2-4E0C-97D7-FC3D55B19C4F}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="5" r:id="rId1"/>
@@ -421,8 +421,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD5FA8F2-CDCD-4BE7-AA7F-3DF63C10FE07}">
   <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -542,7 +542,7 @@
         <v>1</v>
       </c>
       <c r="B11">
-        <v>21.782178217821784</v>
+        <v>61.073825503355707</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -553,7 +553,7 @@
         <v>1</v>
       </c>
       <c r="B12">
-        <v>16.666666666666664</v>
+        <v>63.12056737588653</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -564,7 +564,7 @@
         <v>1</v>
       </c>
       <c r="B13">
-        <v>15.577889447236181</v>
+        <v>58.870967741935488</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>

--- a/data_tables/Microscopy_repletion.xlsx
+++ b/data_tables/Microscopy_repletion.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rickman\Documents\GitHub\R-graphs\data_tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07CFE6B1-F329-4753-8048-5731E0015740}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AAFFBD5-CA39-430C-AC60-4A3E90C9C091}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="210" yWindow="1785" windowWidth="21600" windowHeight="11385" xr2:uid="{D24EA500-18B2-4E0C-97D7-FC3D55B19C4F}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11385" xr2:uid="{D24EA500-18B2-4E0C-97D7-FC3D55B19C4F}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="5" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="11">
   <si>
     <t>control</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>DTT15</t>
+  </si>
+  <si>
+    <t>samplenr</t>
   </si>
 </sst>
 </file>
@@ -419,15 +422,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD5FA8F2-CDCD-4BE7-AA7F-3DF63C10FE07}">
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -437,8 +440,11 @@
       <c r="C1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -448,8 +454,11 @@
       <c r="C2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -459,8 +468,11 @@
       <c r="C3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -470,8 +482,11 @@
       <c r="C4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -481,8 +496,11 @@
       <c r="C5" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -492,8 +510,11 @@
       <c r="C6" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -503,8 +524,11 @@
       <c r="C7" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -514,8 +538,11 @@
       <c r="C8" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -525,8 +552,11 @@
       <c r="C9" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -536,8 +566,11 @@
       <c r="C10" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -547,8 +580,11 @@
       <c r="C11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -558,8 +594,11 @@
       <c r="C12" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>1</v>
       </c>
@@ -569,8 +608,11 @@
       <c r="C13" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>2</v>
       </c>
@@ -580,8 +622,11 @@
       <c r="C14" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -591,8 +636,11 @@
       <c r="C15" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -602,8 +650,11 @@
       <c r="C16" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -613,8 +664,11 @@
       <c r="C17" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -624,8 +678,11 @@
       <c r="C18" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -635,8 +692,11 @@
       <c r="C19" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>1</v>
       </c>
@@ -646,8 +706,11 @@
       <c r="C20" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>1</v>
       </c>
@@ -657,8 +720,11 @@
       <c r="C21" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>1</v>
       </c>
@@ -668,8 +734,11 @@
       <c r="C22" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>2</v>
       </c>
@@ -679,8 +748,11 @@
       <c r="C23" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>2</v>
       </c>
@@ -690,8 +762,11 @@
       <c r="C24" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>2</v>
       </c>
@@ -701,8 +776,11 @@
       <c r="C25" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -712,8 +790,11 @@
       <c r="C26" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>6</v>
       </c>
@@ -723,8 +804,11 @@
       <c r="C27" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>6</v>
       </c>
@@ -734,8 +818,11 @@
       <c r="C28" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>1</v>
       </c>
@@ -745,8 +832,11 @@
       <c r="C29" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>1</v>
       </c>
@@ -756,8 +846,11 @@
       <c r="C30" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>1</v>
       </c>
@@ -767,8 +860,11 @@
       <c r="C31" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>2</v>
       </c>
@@ -778,8 +874,11 @@
       <c r="C32" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>2</v>
       </c>
@@ -789,8 +888,11 @@
       <c r="C33" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>2</v>
       </c>
@@ -800,8 +902,11 @@
       <c r="C34" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>6</v>
       </c>
@@ -811,8 +916,11 @@
       <c r="C35" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>6</v>
       </c>
@@ -822,8 +930,11 @@
       <c r="C36" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>6</v>
       </c>
@@ -832,6 +943,9 @@
       </c>
       <c r="C37" t="s">
         <v>8</v>
+      </c>
+      <c r="D37">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
